--- a/Marketing.Mvc/DadosApp/DadosCompletos/04_ExtracaoCocaColaAjustado_GENDAI.xlsx
+++ b/Marketing.Mvc/DadosApp/DadosCompletos/04_ExtracaoCocaColaAjustado_GENDAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJETO\Marketing\Marketing.Mvc\DadosApp\DadosCompletos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2760B21B-F2CB-4435-8C05-E24530E90B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65AB804-2E00-438B-B37E-45CC5D04F389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="173">
   <si>
     <t>AnoMes</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>GENDAI</t>
+  </si>
+  <si>
+    <t>5511977515914</t>
   </si>
 </sst>
 </file>
@@ -882,7 +885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="A296" sqref="A296"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -983,6 +988,9 @@
       <c r="M2" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">

--- a/Marketing.Mvc/DadosApp/DadosCompletos/04_ExtracaoCocaColaAjustado_GENDAI.xlsx
+++ b/Marketing.Mvc/DadosApp/DadosCompletos/04_ExtracaoCocaColaAjustado_GENDAI.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\Projeto CocaCola\Documentos de Apoio\Planilhas MOB\DADOS TRATADOS - BASE HISTORICA\202505\OUTUBRO2025\ExtracaoCompleta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJETO\Marketing\Marketing.Mvc\DadosApp\DadosCompletos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3B3AAD-30C9-40D8-91BB-A6FD40EE679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12030"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ExtracaoCocaCola" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet name="ExtracaoCocaCola" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="171">
   <si>
     <t>AnoMes</t>
   </si>
@@ -535,11 +540,14 @@
   <si>
     <t>11915623011</t>
   </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -580,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -592,6 +600,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,6 +617,5181 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fábio Luiz de Melo | Ipanema Rolamentos" refreshedDate="45973.576477546296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="295" xr:uid="{6331CC14-594B-44CF-86C6-5F0AD6C7196A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:M296" sheet="ExtracaoCocaCola"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="AnoMes" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-07-01T00:00:00" maxDate="2024-12-02T00:00:00"/>
+    </cacheField>
+    <cacheField name="UF" numFmtId="49">
+      <sharedItems count="10">
+        <s v="SP"/>
+        <s v="RJ"/>
+        <s v="PR"/>
+        <s v="CE"/>
+        <s v="MS"/>
+        <s v="MG"/>
+        <s v="DF"/>
+        <s v="MA"/>
+        <s v="PA"/>
+        <s v="GO"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cidade" numFmtId="49">
+      <sharedItems count="27">
+        <s v="SÃO PAULO"/>
+        <s v="RIO DE JANEIRO"/>
+        <s v="SOROCABA"/>
+        <s v="SANTOS"/>
+        <s v="CURITIBA"/>
+        <s v="CAMPINAS"/>
+        <s v="OSASCO"/>
+        <s v="EUSEBIO"/>
+        <s v="BARUERI"/>
+        <s v="SAO PAULO"/>
+        <s v="GUARULHOS"/>
+        <s v="RIBEIRÃO PRETO"/>
+        <s v="MOGI DAS CRUZES"/>
+        <s v="CAMPO GRANDE"/>
+        <s v="BOTUCATU"/>
+        <s v="SÃO BERNARDO DO CAMPO"/>
+        <s v="ARAXÁ"/>
+        <s v="BRASÍLIA"/>
+        <s v="SÃO LUÍS"/>
+        <s v="COTIA"/>
+        <s v="SÃO CAETANO DO SUL"/>
+        <s v="SÃO PAULO "/>
+        <s v="PIRACICABA"/>
+        <s v="SANTO ANDRE"/>
+        <s v="FORTALEZA"/>
+        <s v="BELÉM"/>
+        <s v="RIO VERDE"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CNPJ" numFmtId="49">
+      <sharedItems count="56">
+        <s v="29303297000146"/>
+        <s v="17809887000247"/>
+        <s v="39829638000175"/>
+        <s v="23792429000164"/>
+        <s v="43910234000189"/>
+        <s v="23188521000110"/>
+        <s v="23640240000156"/>
+        <s v="17809887000328"/>
+        <s v="23800019000118"/>
+        <s v="10400623000296"/>
+        <s v="52968422000159"/>
+        <s v="17809887000590"/>
+        <s v="23800019000380"/>
+        <s v="17809887000409"/>
+        <s v="72704349000115"/>
+        <s v="26590236000119"/>
+        <s v="52541338000154"/>
+        <s v="47116213000147"/>
+        <s v="49325762000157"/>
+        <s v="23203370000121"/>
+        <s v="11180640000147"/>
+        <s v="48480654000196"/>
+        <s v="02714288000191"/>
+        <s v="52836703000158"/>
+        <s v="51304975000144"/>
+        <s v="26610924000101"/>
+        <s v="51239347000122"/>
+        <s v="22628709000179"/>
+        <s v="26593833000105"/>
+        <s v="17886528000102"/>
+        <s v="51239727000167"/>
+        <s v="00525413000190"/>
+        <s v="23193623000123"/>
+        <s v="51854368000158"/>
+        <s v="51382404000128"/>
+        <s v="26021470000125"/>
+        <s v="53541274000154"/>
+        <s v="46659037000127"/>
+        <s v="14188946000138"/>
+        <s v="51465406000180"/>
+        <s v="52764547000167"/>
+        <s v="06788563000172"/>
+        <s v="54647344000116"/>
+        <s v="54691984000123"/>
+        <s v="54248589000170"/>
+        <s v="25131022000111"/>
+        <s v="00125775000193"/>
+        <s v="19077529000131"/>
+        <s v="17794458000162"/>
+        <s v="24795364000173"/>
+        <s v="25186374000174"/>
+        <s v="54644648000120"/>
+        <s v="23792429000598"/>
+        <s v="01159209000165"/>
+        <s v="56915707000182"/>
+        <s v="54842341000133"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Restaurante" numFmtId="49">
+      <sharedItems count="54">
+        <s v="GENDAI - BOURBON"/>
+        <s v="GENDAI SHOP PAULISTA"/>
+        <s v="GENDAI BARRA SHOPPING"/>
+        <s v="GENDAI IBIRAPUERA"/>
+        <s v="GENDAI MORUMBI"/>
+        <s v="GENDAI SOROCABA IGUATEMI ESPLANADA"/>
+        <s v="GENDAI ANALIA FRANCO"/>
+        <s v="GENDAI CIDADE SAO PAULO"/>
+        <s v="GENDAI CENTER NORTE"/>
+        <s v="GENDAI - PRAIAMAR"/>
+        <s v="GENDAI SHOPPING ESTACAO CURITIBA"/>
+        <s v="GENDAI ELDORADO"/>
+        <s v="GENDAI TIETE PLAZA"/>
+        <s v="GENDAI HIGIENOPOLIS"/>
+        <s v="GENDAI - DOM PEDRO (CAMPINAS I)"/>
+        <s v="GENDAI - UNIÃO"/>
+        <s v="GENDAI SANTANA PARQUE SHOPPING MM"/>
+        <s v="GENDAI SHOPPING TIJUCA"/>
+        <s v="GENDAI TERRAZO SHOPPING"/>
+        <s v="GENDAI - WEST PLAZA"/>
+        <s v="GENDAI TAMBORÉ"/>
+        <s v="GENDAI - MOOCA"/>
+        <s v="GENDAI - D&amp;D"/>
+        <s v="GENDAI PARK JACAREPAGUA"/>
+        <s v="GENDAI NORTE SHOPPING"/>
+        <s v="GENDAI - VILA OLÍMPIA"/>
+        <s v="GENDAI INTERNACIONAL"/>
+        <s v="GENDAI - RIBEIRÃO PRETO IGUATEMI"/>
+        <s v="GENDAI ALPHAVILLE IGUATEMI"/>
+        <s v="GENDAI - FREI CANECA"/>
+        <s v="GENDAI MOGI DAS CRUZES"/>
+        <s v="GENDAI - OSASCO PLAZA"/>
+        <s v="GENDAI - OSASCO SUPER"/>
+        <s v="GENDAI NORTE SUL CAMPO GRANDE"/>
+        <s v="GENDAI SHOPPING AMANDO BOTUCATU MM"/>
+        <s v="GENDAI - TATUAPÉ BOULEVARD"/>
+        <s v="GENDAI - SÃO BERNARDO GOLDEN SQUARE"/>
+        <s v="GENDAI ARAXÁ"/>
+        <s v="GENDAI - TUCURUVI METRÔ"/>
+        <s v="GENDAI RUA SUDOESTE MM"/>
+        <s v="GENDAI SÃO LUIS MM"/>
+        <s v="GENDAI - ARICANDUVA"/>
+        <s v="GENDAI GRANJA VIANA"/>
+        <s v="GENDAI SHOPPING BARUERI"/>
+        <s v="GENDAI - SHOPPING PARK SÃO CAETANO"/>
+        <s v="GENDAI - SHOPPING SP MARKET"/>
+        <s v="GENDAI - SHOPPING PIRACICABA"/>
+        <s v="GENDAI - SHOPPING GRAND PLAZA "/>
+        <s v="GENDAI - IGUATEMI BRASÍLIA"/>
+        <s v="GENDAI - RUA SENA MADUREIRA"/>
+        <s v="GENDAI SAMAMBAIA MM"/>
+        <s v="GENDAI - FÁTIMA"/>
+        <s v="GENDAI BOULEVARD SHOPPING BELÉM"/>
+        <s v="GENDAI RIO VERDE MM"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PEDIDOS_TOTAL" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="299" maxValue="13464"/>
+    </cacheField>
+    <cacheField name="Pedidos_Coca" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="64" maxValue="7634"/>
+    </cacheField>
+    <cacheField name="INCIDENCIA REAL" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.12859999999999999" maxValue="0.64839999999999998"/>
+    </cacheField>
+    <cacheField name="META" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.7" maxValue="0.7"/>
+    </cacheField>
+    <cacheField name="Preco_Unitario_Medio" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.67" maxValue="10.119999999999999"/>
+    </cacheField>
+    <cacheField name="QUANTIDADE DE PEDIDOS NÃO CAPTURADOS" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="48" maxValue="3365"/>
+    </cacheField>
+    <cacheField name="RECEITA BRUTA NÃO CAPTURADA" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="345.59" maxValue="25778.2"/>
+    </cacheField>
+    <cacheField name="TELEFONE" numFmtId="49">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="295">
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7051"/>
+    <n v="4324"/>
+    <n v="0.61319999999999997"/>
+    <n v="0.7"/>
+    <n v="6.81"/>
+    <n v="612"/>
+    <n v="4165.68"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8250"/>
+    <n v="5013"/>
+    <n v="0.60760000000000003"/>
+    <n v="0.7"/>
+    <n v="6.81"/>
+    <n v="762"/>
+    <n v="5189.22"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3541"/>
+    <n v="2098"/>
+    <n v="0.59250000000000003"/>
+    <n v="0.7"/>
+    <n v="6.79"/>
+    <n v="381"/>
+    <n v="2584.9499999999998"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5771"/>
+    <n v="3380"/>
+    <n v="0.5857"/>
+    <n v="0.7"/>
+    <n v="6.8"/>
+    <n v="660"/>
+    <n v="4485.96"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="6895"/>
+    <n v="3989"/>
+    <n v="0.57850000000000001"/>
+    <n v="0.7"/>
+    <n v="6.8"/>
+    <n v="837"/>
+    <n v="5695"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="6948"/>
+    <n v="4013"/>
+    <n v="0.5776"/>
+    <n v="0.7"/>
+    <n v="6.89"/>
+    <n v="851"/>
+    <n v="5860.63"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="9947"/>
+    <n v="5742"/>
+    <n v="0.57730000000000004"/>
+    <n v="0.7"/>
+    <n v="6.97"/>
+    <n v="1221"/>
+    <n v="8509.67"/>
+    <s v="11915623011"/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="7698"/>
+    <n v="4433"/>
+    <n v="0.57589999999999997"/>
+    <n v="0.7"/>
+    <n v="6.75"/>
+    <n v="956"/>
+    <n v="6450.3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="6224"/>
+    <n v="3555"/>
+    <n v="0.57120000000000004"/>
+    <n v="0.7"/>
+    <n v="6.88"/>
+    <n v="802"/>
+    <n v="5516.38"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="7001"/>
+    <n v="3966"/>
+    <n v="0.5665"/>
+    <n v="0.7"/>
+    <n v="6.69"/>
+    <n v="935"/>
+    <n v="6253.14"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="4124"/>
+    <n v="2304"/>
+    <n v="0.55869999999999997"/>
+    <n v="0.7"/>
+    <n v="7.25"/>
+    <n v="583"/>
+    <n v="4225.3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="6894"/>
+    <n v="3796"/>
+    <n v="0.55059999999999998"/>
+    <n v="0.7"/>
+    <n v="6.93"/>
+    <n v="1030"/>
+    <n v="7136.51"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="12"/>
+    <n v="5241"/>
+    <n v="2875"/>
+    <n v="0.54859999999999998"/>
+    <n v="0.7"/>
+    <n v="7.01"/>
+    <n v="794"/>
+    <n v="5563.84"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="6342"/>
+    <n v="3430"/>
+    <n v="0.54079999999999995"/>
+    <n v="0.7"/>
+    <n v="6.78"/>
+    <n v="1009"/>
+    <n v="6843.73"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="1054"/>
+    <n v="561"/>
+    <n v="0.5323"/>
+    <n v="0.7"/>
+    <n v="7.2"/>
+    <n v="177"/>
+    <n v="1272.96"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="7477"/>
+    <n v="3954"/>
+    <n v="0.52880000000000005"/>
+    <n v="0.7"/>
+    <n v="6.92"/>
+    <n v="1280"/>
+    <n v="8856.91"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="2661"/>
+    <n v="1400"/>
+    <n v="0.52610000000000001"/>
+    <n v="0.7"/>
+    <n v="6.98"/>
+    <n v="463"/>
+    <n v="3229.65"/>
+    <s v="11996130882"/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="5298"/>
+    <n v="2761"/>
+    <n v="0.52110000000000001"/>
+    <n v="0.7"/>
+    <n v="7.07"/>
+    <n v="948"/>
+    <n v="6699.53"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="1341"/>
+    <n v="687"/>
+    <n v="0.51229999999999998"/>
+    <n v="0.7"/>
+    <n v="6.98"/>
+    <n v="252"/>
+    <n v="1756.87"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="4439"/>
+    <n v="2263"/>
+    <n v="0.50980000000000003"/>
+    <n v="0.7"/>
+    <n v="6.72"/>
+    <n v="844"/>
+    <n v="5673.7"/>
+    <s v="1138651227"/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="6130"/>
+    <n v="3120"/>
+    <n v="0.50900000000000001"/>
+    <n v="0.7"/>
+    <n v="6.85"/>
+    <n v="1171"/>
+    <n v="8021.35"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="5875"/>
+    <n v="2959"/>
+    <n v="0.50370000000000004"/>
+    <n v="0.7"/>
+    <n v="6.96"/>
+    <n v="1154"/>
+    <n v="8028.36"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="5003"/>
+    <n v="2515"/>
+    <n v="0.50270000000000004"/>
+    <n v="0.7"/>
+    <n v="6.86"/>
+    <n v="987"/>
+    <n v="6771.51"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="2974"/>
+    <n v="1485"/>
+    <n v="0.49930000000000002"/>
+    <n v="0.7"/>
+    <n v="7.13"/>
+    <n v="597"/>
+    <n v="4255.18"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="24"/>
+    <n v="3822"/>
+    <n v="1847"/>
+    <n v="0.48330000000000001"/>
+    <n v="0.7"/>
+    <n v="7.29"/>
+    <n v="828"/>
+    <n v="6039.04"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="25"/>
+    <n v="5616"/>
+    <n v="2705"/>
+    <n v="0.48170000000000002"/>
+    <n v="0.7"/>
+    <n v="6.54"/>
+    <n v="1226"/>
+    <n v="8019.35"/>
+    <s v="11981696573"/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="26"/>
+    <x v="26"/>
+    <n v="6614"/>
+    <n v="3156"/>
+    <n v="0.47720000000000001"/>
+    <n v="0.7"/>
+    <n v="7.34"/>
+    <n v="1474"/>
+    <n v="10817.69"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="27"/>
+    <x v="27"/>
+    <n v="5512"/>
+    <n v="2578"/>
+    <n v="0.4677"/>
+    <n v="0.7"/>
+    <n v="6.7"/>
+    <n v="1280"/>
+    <n v="8578.68"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="28"/>
+    <x v="28"/>
+    <n v="6770"/>
+    <n v="3139"/>
+    <n v="0.4637"/>
+    <n v="0.7"/>
+    <n v="6.74"/>
+    <n v="1600"/>
+    <n v="10784"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="29"/>
+    <n v="2608"/>
+    <n v="1208"/>
+    <n v="0.4632"/>
+    <n v="0.7"/>
+    <n v="7.01"/>
+    <n v="618"/>
+    <n v="4329.38"/>
+    <s v="11984523530"/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="30"/>
+    <x v="30"/>
+    <n v="3496"/>
+    <n v="1525"/>
+    <n v="0.43619999999999998"/>
+    <n v="0.7"/>
+    <n v="6.71"/>
+    <n v="922"/>
+    <n v="6187.96"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="31"/>
+    <n v="3552"/>
+    <n v="1492"/>
+    <n v="0.42"/>
+    <n v="0.7"/>
+    <n v="6.87"/>
+    <n v="994"/>
+    <n v="6831.53"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="32"/>
+    <x v="32"/>
+    <n v="6242"/>
+    <n v="2592"/>
+    <n v="0.4153"/>
+    <n v="0.7"/>
+    <n v="7.1"/>
+    <n v="1777"/>
+    <n v="12619.54"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="33"/>
+    <x v="33"/>
+    <n v="2152"/>
+    <n v="864"/>
+    <n v="0.40150000000000002"/>
+    <n v="0.7"/>
+    <n v="6.9"/>
+    <n v="642"/>
+    <n v="4432.5600000000004"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="34"/>
+    <x v="34"/>
+    <n v="299"/>
+    <n v="119"/>
+    <n v="0.39800000000000002"/>
+    <n v="0.7"/>
+    <n v="7.3"/>
+    <n v="90"/>
+    <n v="659.19"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="35"/>
+    <x v="35"/>
+    <n v="6117"/>
+    <n v="2376"/>
+    <n v="0.38840000000000002"/>
+    <n v="0.7"/>
+    <n v="7.24"/>
+    <n v="1906"/>
+    <n v="13798.72"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="36"/>
+    <x v="36"/>
+    <n v="4569"/>
+    <n v="1658"/>
+    <n v="0.3629"/>
+    <n v="0.7"/>
+    <n v="7.26"/>
+    <n v="1540"/>
+    <n v="11182.58"/>
+    <s v="11963243003"/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="37"/>
+    <x v="37"/>
+    <n v="1496"/>
+    <n v="530"/>
+    <n v="0.3543"/>
+    <n v="0.7"/>
+    <n v="7.08"/>
+    <n v="517"/>
+    <n v="3661.78"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="38"/>
+    <x v="38"/>
+    <n v="3266"/>
+    <n v="1072"/>
+    <n v="0.32819999999999999"/>
+    <n v="0.7"/>
+    <n v="7.65"/>
+    <n v="1214"/>
+    <n v="9288.6299999999992"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="39"/>
+    <x v="39"/>
+    <n v="1561"/>
+    <n v="499"/>
+    <n v="0.31969999999999998"/>
+    <n v="0.7"/>
+    <n v="6.95"/>
+    <n v="594"/>
+    <n v="4126.22"/>
+    <s v="61981366828"/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="40"/>
+    <x v="40"/>
+    <n v="456"/>
+    <n v="136"/>
+    <n v="0.29820000000000002"/>
+    <n v="0.7"/>
+    <n v="7.26"/>
+    <n v="183"/>
+    <n v="1330.03"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="41"/>
+    <x v="41"/>
+    <n v="3118"/>
+    <n v="667"/>
+    <n v="0.21390000000000001"/>
+    <n v="0.7"/>
+    <n v="7.14"/>
+    <n v="1516"/>
+    <n v="10821.38"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6269"/>
+    <n v="3779"/>
+    <n v="0.6028"/>
+    <n v="0.7"/>
+    <n v="6.93"/>
+    <n v="609"/>
+    <n v="4222.45"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7813"/>
+    <n v="4667"/>
+    <n v="0.59730000000000005"/>
+    <n v="0.7"/>
+    <n v="6.92"/>
+    <n v="802"/>
+    <n v="5550.53"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5554"/>
+    <n v="3178"/>
+    <n v="0.57220000000000004"/>
+    <n v="0.7"/>
+    <n v="6.89"/>
+    <n v="710"/>
+    <n v="4890.5200000000004"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="6438"/>
+    <n v="3645"/>
+    <n v="0.56620000000000004"/>
+    <n v="0.7"/>
+    <n v="6.73"/>
+    <n v="862"/>
+    <n v="5798.57"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="6051"/>
+    <n v="3409"/>
+    <n v="0.56340000000000001"/>
+    <n v="0.7"/>
+    <n v="7.05"/>
+    <n v="827"/>
+    <n v="5828.24"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="434"/>
+    <n v="244"/>
+    <n v="0.56220000000000003"/>
+    <n v="0.7"/>
+    <n v="6.83"/>
+    <n v="60"/>
+    <n v="408.43"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="7350"/>
+    <n v="4121"/>
+    <n v="0.56069999999999998"/>
+    <n v="0.7"/>
+    <n v="6.88"/>
+    <n v="1024"/>
+    <n v="7045.12"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="42"/>
+    <x v="42"/>
+    <n v="346"/>
+    <n v="194"/>
+    <n v="0.56069999999999998"/>
+    <n v="0.7"/>
+    <n v="7.17"/>
+    <n v="48"/>
+    <n v="345.59"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="43"/>
+    <x v="43"/>
+    <n v="2006"/>
+    <n v="1123"/>
+    <n v="0.55979999999999996"/>
+    <n v="0.7"/>
+    <n v="7.19"/>
+    <n v="281"/>
+    <n v="2021.83"/>
+    <s v="11982116628"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="6731"/>
+    <n v="3722"/>
+    <n v="0.55300000000000005"/>
+    <n v="0.7"/>
+    <n v="6.89"/>
+    <n v="990"/>
+    <n v="6819.03"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="5823"/>
+    <n v="3200"/>
+    <n v="0.54949999999999999"/>
+    <n v="0.7"/>
+    <n v="7.03"/>
+    <n v="876"/>
+    <n v="6158.98"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="6928"/>
+    <n v="3774"/>
+    <n v="0.54469999999999996"/>
+    <n v="0.7"/>
+    <n v="7.16"/>
+    <n v="1076"/>
+    <n v="7701.3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="9364"/>
+    <n v="5056"/>
+    <n v="0.53990000000000005"/>
+    <n v="0.7"/>
+    <n v="7.01"/>
+    <n v="1499"/>
+    <n v="10506.59"/>
+    <s v="11915623011"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="5862"/>
+    <n v="3153"/>
+    <n v="0.53790000000000004"/>
+    <n v="0.7"/>
+    <n v="6.96"/>
+    <n v="950"/>
+    <n v="6614.78"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="6745"/>
+    <n v="3623"/>
+    <n v="0.53710000000000002"/>
+    <n v="0.7"/>
+    <n v="6.87"/>
+    <n v="1098"/>
+    <n v="7546.7"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="2091"/>
+    <n v="1092"/>
+    <n v="0.5222"/>
+    <n v="0.7"/>
+    <n v="7.2"/>
+    <n v="372"/>
+    <n v="2676.24"/>
+    <s v="11996130882"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="4412"/>
+    <n v="2302"/>
+    <n v="0.52180000000000004"/>
+    <n v="0.7"/>
+    <n v="6.75"/>
+    <n v="786"/>
+    <n v="5308.2"/>
+    <s v="1138651227"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="1109"/>
+    <n v="577"/>
+    <n v="0.52029999999999998"/>
+    <n v="0.7"/>
+    <n v="7.06"/>
+    <n v="199"/>
+    <n v="1407.06"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="3902"/>
+    <n v="1999"/>
+    <n v="0.51229999999999998"/>
+    <n v="0.7"/>
+    <n v="7.37"/>
+    <n v="732"/>
+    <n v="5397.79"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="24"/>
+    <n v="3271"/>
+    <n v="1672"/>
+    <n v="0.51119999999999999"/>
+    <n v="0.7"/>
+    <n v="7.41"/>
+    <n v="618"/>
+    <n v="4577.16"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="44"/>
+    <x v="12"/>
+    <n v="4633"/>
+    <n v="2366"/>
+    <n v="0.51070000000000004"/>
+    <n v="0.7"/>
+    <n v="7.18"/>
+    <n v="877"/>
+    <n v="6297.58"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="3963"/>
+    <n v="1992"/>
+    <n v="0.50260000000000005"/>
+    <n v="0.7"/>
+    <n v="7.31"/>
+    <n v="782"/>
+    <n v="5717.15"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="6271"/>
+    <n v="3142"/>
+    <n v="0.501"/>
+    <n v="0.7"/>
+    <n v="7.02"/>
+    <n v="1248"/>
+    <n v="8758.85"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="4720"/>
+    <n v="2329"/>
+    <n v="0.49340000000000001"/>
+    <n v="0.7"/>
+    <n v="7.04"/>
+    <n v="975"/>
+    <n v="6864"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="26"/>
+    <x v="26"/>
+    <n v="5696"/>
+    <n v="2799"/>
+    <n v="0.4914"/>
+    <n v="0.7"/>
+    <n v="7.36"/>
+    <n v="1188"/>
+    <n v="8745.15"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="4893"/>
+    <n v="2402"/>
+    <n v="0.4909"/>
+    <n v="0.7"/>
+    <n v="7.05"/>
+    <n v="1023"/>
+    <n v="7212.86"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="29"/>
+    <n v="4991"/>
+    <n v="2439"/>
+    <n v="0.48870000000000002"/>
+    <n v="0.7"/>
+    <n v="6.95"/>
+    <n v="1055"/>
+    <n v="7330.17"/>
+    <s v="11984523530"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="5765"/>
+    <n v="2812"/>
+    <n v="0.48780000000000001"/>
+    <n v="0.7"/>
+    <n v="7.13"/>
+    <n v="1224"/>
+    <n v="8723.56"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="27"/>
+    <x v="27"/>
+    <n v="5508"/>
+    <n v="2602"/>
+    <n v="0.47239999999999999"/>
+    <n v="0.7"/>
+    <n v="6.76"/>
+    <n v="1254"/>
+    <n v="8474.34"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="25"/>
+    <n v="5410"/>
+    <n v="2543"/>
+    <n v="0.47010000000000002"/>
+    <n v="0.7"/>
+    <n v="6.85"/>
+    <n v="1244"/>
+    <n v="8521.4"/>
+    <s v="11981696573"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="45"/>
+    <x v="44"/>
+    <n v="4473"/>
+    <n v="2098"/>
+    <n v="0.46899999999999997"/>
+    <n v="0.7"/>
+    <n v="5.73"/>
+    <n v="1033"/>
+    <n v="5923.76"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="28"/>
+    <x v="28"/>
+    <n v="6294"/>
+    <n v="2945"/>
+    <n v="0.46789999999999998"/>
+    <n v="0.7"/>
+    <n v="6.89"/>
+    <n v="1461"/>
+    <n v="10064.91"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="2571"/>
+    <n v="1167"/>
+    <n v="0.45390000000000003"/>
+    <n v="0.7"/>
+    <n v="7.22"/>
+    <n v="633"/>
+    <n v="4568.09"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="30"/>
+    <x v="30"/>
+    <n v="3704"/>
+    <n v="1654"/>
+    <n v="0.44650000000000001"/>
+    <n v="0.7"/>
+    <n v="6.99"/>
+    <n v="939"/>
+    <n v="6562.21"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="46"/>
+    <x v="45"/>
+    <n v="5223"/>
+    <n v="2330"/>
+    <n v="0.4461"/>
+    <n v="0.7"/>
+    <n v="5.63"/>
+    <n v="1326"/>
+    <n v="7469.13"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="32"/>
+    <x v="32"/>
+    <n v="6154"/>
+    <n v="2520"/>
+    <n v="0.40949999999999998"/>
+    <n v="0.7"/>
+    <n v="7.12"/>
+    <n v="1788"/>
+    <n v="12729.14"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="34"/>
+    <x v="34"/>
+    <n v="351"/>
+    <n v="143"/>
+    <n v="0.40739999999999998"/>
+    <n v="0.7"/>
+    <n v="7.31"/>
+    <n v="103"/>
+    <n v="750.74"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="31"/>
+    <n v="3402"/>
+    <n v="1356"/>
+    <n v="0.39860000000000001"/>
+    <n v="0.7"/>
+    <n v="7.1"/>
+    <n v="1025"/>
+    <n v="7280.34"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="47"/>
+    <x v="46"/>
+    <n v="3934"/>
+    <n v="1561"/>
+    <n v="0.39679999999999999"/>
+    <n v="0.7"/>
+    <n v="6.57"/>
+    <n v="1193"/>
+    <n v="7838.55"/>
+    <s v="19982861000"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="36"/>
+    <x v="36"/>
+    <n v="4131"/>
+    <n v="1621"/>
+    <n v="0.39240000000000003"/>
+    <n v="0.7"/>
+    <n v="7.19"/>
+    <n v="1271"/>
+    <n v="9136.33"/>
+    <s v="11963243003"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="33"/>
+    <x v="33"/>
+    <n v="1782"/>
+    <n v="698"/>
+    <n v="0.39169999999999999"/>
+    <n v="0.7"/>
+    <n v="6.92"/>
+    <n v="549"/>
+    <n v="3801.85"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="40"/>
+    <x v="40"/>
+    <n v="554"/>
+    <n v="201"/>
+    <n v="0.36280000000000001"/>
+    <n v="0.7"/>
+    <n v="7.03"/>
+    <n v="187"/>
+    <n v="1313.2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="35"/>
+    <x v="35"/>
+    <n v="5992"/>
+    <n v="2170"/>
+    <n v="0.36209999999999998"/>
+    <n v="0.7"/>
+    <n v="7.29"/>
+    <n v="2024"/>
+    <n v="14757.88"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="37"/>
+    <x v="37"/>
+    <n v="1442"/>
+    <n v="513"/>
+    <n v="0.35580000000000001"/>
+    <n v="0.7"/>
+    <n v="7.4"/>
+    <n v="496"/>
+    <n v="3673.36"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="48"/>
+    <x v="47"/>
+    <n v="4856"/>
+    <n v="1718"/>
+    <n v="0.3538"/>
+    <n v="0.7"/>
+    <n v="7.92"/>
+    <n v="1681"/>
+    <n v="13313.93"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="39"/>
+    <x v="39"/>
+    <n v="1906"/>
+    <n v="616"/>
+    <n v="0.32319999999999999"/>
+    <n v="0.7"/>
+    <n v="6.46"/>
+    <n v="718"/>
+    <n v="4639.57"/>
+    <s v="61981366828"/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="38"/>
+    <x v="38"/>
+    <n v="7145"/>
+    <n v="2190"/>
+    <n v="0.30649999999999999"/>
+    <n v="0.7"/>
+    <n v="7.61"/>
+    <n v="2812"/>
+    <n v="21395.52"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="41"/>
+    <x v="41"/>
+    <n v="3400"/>
+    <n v="837"/>
+    <n v="0.2462"/>
+    <n v="0.7"/>
+    <n v="8.23"/>
+    <n v="1543"/>
+    <n v="12698.89"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="49"/>
+    <x v="48"/>
+    <n v="1810"/>
+    <n v="409"/>
+    <n v="0.22600000000000001"/>
+    <n v="0.7"/>
+    <n v="4.67"/>
+    <n v="858"/>
+    <n v="4002.67"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-08-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="50"/>
+    <x v="49"/>
+    <n v="1482"/>
+    <n v="310"/>
+    <n v="0.2092"/>
+    <n v="0.7"/>
+    <n v="6.4"/>
+    <n v="727"/>
+    <n v="4654.57"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5977"/>
+    <n v="3715"/>
+    <n v="0.62150000000000005"/>
+    <n v="0.7"/>
+    <n v="6.94"/>
+    <n v="469"/>
+    <n v="3254.17"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7637"/>
+    <n v="4677"/>
+    <n v="0.61240000000000006"/>
+    <n v="0.7"/>
+    <n v="6.94"/>
+    <n v="669"/>
+    <n v="4642.17"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5292"/>
+    <n v="3145"/>
+    <n v="0.59430000000000005"/>
+    <n v="0.7"/>
+    <n v="6.91"/>
+    <n v="559"/>
+    <n v="3865.45"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="7501"/>
+    <n v="4455"/>
+    <n v="0.59389999999999998"/>
+    <n v="0.7"/>
+    <n v="6.91"/>
+    <n v="796"/>
+    <n v="5498.29"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="42"/>
+    <x v="42"/>
+    <n v="2424"/>
+    <n v="1410"/>
+    <n v="0.58169999999999999"/>
+    <n v="0.7"/>
+    <n v="7.2"/>
+    <n v="287"/>
+    <n v="2064.96"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="6387"/>
+    <n v="3713"/>
+    <n v="0.58130000000000004"/>
+    <n v="0.7"/>
+    <n v="6.68"/>
+    <n v="758"/>
+    <n v="5062.7700000000004"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="43"/>
+    <x v="43"/>
+    <n v="2481"/>
+    <n v="1430"/>
+    <n v="0.57640000000000002"/>
+    <n v="0.7"/>
+    <n v="7.07"/>
+    <n v="307"/>
+    <n v="2168.37"/>
+    <s v="11982116628"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="5515"/>
+    <n v="3165"/>
+    <n v="0.57389999999999997"/>
+    <n v="0.7"/>
+    <n v="7.13"/>
+    <n v="696"/>
+    <n v="4958.92"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="6146"/>
+    <n v="3519"/>
+    <n v="0.5726"/>
+    <n v="0.7"/>
+    <n v="6.86"/>
+    <n v="783"/>
+    <n v="5372.75"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="5535"/>
+    <n v="3146"/>
+    <n v="0.56840000000000002"/>
+    <n v="0.7"/>
+    <n v="6.94"/>
+    <n v="728"/>
+    <n v="5055.79"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="5774"/>
+    <n v="3260"/>
+    <n v="0.56459999999999999"/>
+    <n v="0.7"/>
+    <n v="6.99"/>
+    <n v="782"/>
+    <n v="5464.78"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="44"/>
+    <x v="12"/>
+    <n v="4490"/>
+    <n v="2484"/>
+    <n v="0.55320000000000003"/>
+    <n v="0.7"/>
+    <n v="7.18"/>
+    <n v="659"/>
+    <n v="4731.62"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="5997"/>
+    <n v="3307"/>
+    <n v="0.5514"/>
+    <n v="0.7"/>
+    <n v="7.13"/>
+    <n v="891"/>
+    <n v="6352.12"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="8969"/>
+    <n v="4849"/>
+    <n v="0.54059999999999997"/>
+    <n v="0.7"/>
+    <n v="7.03"/>
+    <n v="1429"/>
+    <n v="10047.98"/>
+    <s v="11915623011"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="1935"/>
+    <n v="1039"/>
+    <n v="0.53700000000000003"/>
+    <n v="0.7"/>
+    <n v="7.19"/>
+    <n v="316"/>
+    <n v="2268.4499999999998"/>
+    <s v="11996130882"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="4133"/>
+    <n v="2195"/>
+    <n v="0.53110000000000002"/>
+    <n v="0.7"/>
+    <n v="6.8"/>
+    <n v="698"/>
+    <n v="4747.08"/>
+    <s v="1138651227"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="3214"/>
+    <n v="1690"/>
+    <n v="0.52580000000000005"/>
+    <n v="0.7"/>
+    <n v="7.36"/>
+    <n v="560"/>
+    <n v="4120.13"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="6315"/>
+    <n v="3315"/>
+    <n v="0.52490000000000003"/>
+    <n v="0.7"/>
+    <n v="6.83"/>
+    <n v="1106"/>
+    <n v="7550.57"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="3803"/>
+    <n v="1991"/>
+    <n v="0.52349999999999997"/>
+    <n v="0.7"/>
+    <n v="7.18"/>
+    <n v="671"/>
+    <n v="4818.5"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="4763"/>
+    <n v="2469"/>
+    <n v="0.51839999999999997"/>
+    <n v="0.7"/>
+    <n v="7.14"/>
+    <n v="865"/>
+    <n v="6176.81"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="1160"/>
+    <n v="596"/>
+    <n v="0.51380000000000003"/>
+    <n v="0.7"/>
+    <n v="7.26"/>
+    <n v="216"/>
+    <n v="1568.16"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="24"/>
+    <n v="2981"/>
+    <n v="1506"/>
+    <n v="0.50519999999999998"/>
+    <n v="0.7"/>
+    <n v="7.42"/>
+    <n v="581"/>
+    <n v="4308.79"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="4615"/>
+    <n v="2315"/>
+    <n v="0.50160000000000005"/>
+    <n v="0.7"/>
+    <n v="7.05"/>
+    <n v="916"/>
+    <n v="6454.28"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="45"/>
+    <x v="44"/>
+    <n v="4182"/>
+    <n v="2093"/>
+    <n v="0.50049999999999994"/>
+    <n v="0.7"/>
+    <n v="5.73"/>
+    <n v="834"/>
+    <n v="4781.0600000000004"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="4926"/>
+    <n v="2440"/>
+    <n v="0.49530000000000002"/>
+    <n v="0.7"/>
+    <n v="7.08"/>
+    <n v="1008"/>
+    <n v="7138.06"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="5992"/>
+    <n v="2950"/>
+    <n v="0.49230000000000002"/>
+    <n v="0.7"/>
+    <n v="6.95"/>
+    <n v="1244"/>
+    <n v="8648.58"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="27"/>
+    <x v="27"/>
+    <n v="5682"/>
+    <n v="2763"/>
+    <n v="0.48630000000000001"/>
+    <n v="0.7"/>
+    <n v="6.75"/>
+    <n v="1214"/>
+    <n v="8197.2000000000007"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="28"/>
+    <x v="28"/>
+    <n v="5978"/>
+    <n v="2872"/>
+    <n v="0.48039999999999999"/>
+    <n v="0.7"/>
+    <n v="6.86"/>
+    <n v="1313"/>
+    <n v="9004.44"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="25"/>
+    <n v="4883"/>
+    <n v="2288"/>
+    <n v="0.46860000000000002"/>
+    <n v="0.7"/>
+    <n v="6.83"/>
+    <n v="1130"/>
+    <n v="7718.58"/>
+    <s v="11981696573"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="29"/>
+    <n v="5229"/>
+    <n v="2439"/>
+    <n v="0.46639999999999998"/>
+    <n v="0.7"/>
+    <n v="6.78"/>
+    <n v="1221"/>
+    <n v="8280.41"/>
+    <s v="11984523530"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="46"/>
+    <x v="45"/>
+    <n v="4908"/>
+    <n v="2284"/>
+    <n v="0.46539999999999998"/>
+    <n v="0.7"/>
+    <n v="5.64"/>
+    <n v="1152"/>
+    <n v="6494.21"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="26"/>
+    <x v="26"/>
+    <n v="5775"/>
+    <n v="2630"/>
+    <n v="0.45540000000000003"/>
+    <n v="0.7"/>
+    <n v="7.32"/>
+    <n v="1412"/>
+    <n v="10339.5"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="2435"/>
+    <n v="1100"/>
+    <n v="0.45169999999999999"/>
+    <n v="0.7"/>
+    <n v="7.37"/>
+    <n v="604"/>
+    <n v="4455.17"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="47"/>
+    <x v="46"/>
+    <n v="3452"/>
+    <n v="1449"/>
+    <n v="0.41980000000000001"/>
+    <n v="0.7"/>
+    <n v="6.59"/>
+    <n v="967"/>
+    <n v="6372.73"/>
+    <s v="19982861000"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="40"/>
+    <x v="40"/>
+    <n v="518"/>
+    <n v="216"/>
+    <n v="0.41699999999999998"/>
+    <n v="0.7"/>
+    <n v="6.76"/>
+    <n v="147"/>
+    <n v="991.02"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="30"/>
+    <x v="30"/>
+    <n v="3777"/>
+    <n v="1560"/>
+    <n v="0.41299999999999998"/>
+    <n v="0.7"/>
+    <n v="7.01"/>
+    <n v="1084"/>
+    <n v="7598.14"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="32"/>
+    <x v="32"/>
+    <n v="6297"/>
+    <n v="2496"/>
+    <n v="0.39639999999999997"/>
+    <n v="0.7"/>
+    <n v="7.15"/>
+    <n v="1912"/>
+    <n v="13670.09"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="31"/>
+    <n v="3441"/>
+    <n v="1337"/>
+    <n v="0.38850000000000001"/>
+    <n v="0.7"/>
+    <n v="7.06"/>
+    <n v="1072"/>
+    <n v="7566.2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="35"/>
+    <x v="35"/>
+    <n v="5906"/>
+    <n v="2266"/>
+    <n v="0.38369999999999999"/>
+    <n v="0.7"/>
+    <n v="7.31"/>
+    <n v="1868"/>
+    <n v="13656.54"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="33"/>
+    <x v="33"/>
+    <n v="2248"/>
+    <n v="816"/>
+    <n v="0.36299999999999999"/>
+    <n v="0.7"/>
+    <n v="6.98"/>
+    <n v="758"/>
+    <n v="5288.05"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="36"/>
+    <x v="36"/>
+    <n v="4270"/>
+    <n v="1532"/>
+    <n v="0.35880000000000001"/>
+    <n v="0.7"/>
+    <n v="7.58"/>
+    <n v="1457"/>
+    <n v="11044.06"/>
+    <s v="11963243003"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="48"/>
+    <x v="47"/>
+    <n v="4355"/>
+    <n v="1506"/>
+    <n v="0.3458"/>
+    <n v="0.7"/>
+    <n v="7.84"/>
+    <n v="1542"/>
+    <n v="12099.84"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="37"/>
+    <x v="37"/>
+    <n v="1400"/>
+    <n v="481"/>
+    <n v="0.34360000000000002"/>
+    <n v="0.7"/>
+    <n v="7.24"/>
+    <n v="499"/>
+    <n v="3612.76"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="39"/>
+    <x v="39"/>
+    <n v="1741"/>
+    <n v="583"/>
+    <n v="0.33489999999999998"/>
+    <n v="0.7"/>
+    <n v="7.3"/>
+    <n v="636"/>
+    <n v="4640.6099999999997"/>
+    <s v="61981366828"/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="34"/>
+    <x v="34"/>
+    <n v="472"/>
+    <n v="154"/>
+    <n v="0.32629999999999998"/>
+    <n v="0.7"/>
+    <n v="7.34"/>
+    <n v="176"/>
+    <n v="1294.78"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="38"/>
+    <x v="38"/>
+    <n v="7477"/>
+    <n v="2078"/>
+    <n v="0.27789999999999998"/>
+    <n v="0.7"/>
+    <n v="7.46"/>
+    <n v="3156"/>
+    <n v="23543.01"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="41"/>
+    <x v="41"/>
+    <n v="3674"/>
+    <n v="914"/>
+    <n v="0.24879999999999999"/>
+    <n v="0.7"/>
+    <n v="7.16"/>
+    <n v="1658"/>
+    <n v="11869.85"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="50"/>
+    <x v="49"/>
+    <n v="1228"/>
+    <n v="260"/>
+    <n v="0.2117"/>
+    <n v="0.7"/>
+    <n v="6.4"/>
+    <n v="600"/>
+    <n v="3840.24"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="49"/>
+    <x v="48"/>
+    <n v="1723"/>
+    <n v="356"/>
+    <n v="0.20660000000000001"/>
+    <n v="0.7"/>
+    <n v="4.83"/>
+    <n v="850"/>
+    <n v="4107.8599999999997"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-09-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="51"/>
+    <x v="50"/>
+    <n v="417"/>
+    <n v="64"/>
+    <n v="0.1535"/>
+    <n v="0.7"/>
+    <n v="7.44"/>
+    <n v="228"/>
+    <n v="1695.58"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6366"/>
+    <n v="4128"/>
+    <n v="0.64839999999999998"/>
+    <n v="0.7"/>
+    <n v="7.13"/>
+    <n v="328"/>
+    <n v="2340.0700000000002"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="42"/>
+    <x v="42"/>
+    <n v="2395"/>
+    <n v="1539"/>
+    <n v="0.64259999999999995"/>
+    <n v="0.7"/>
+    <n v="7.3"/>
+    <n v="138"/>
+    <n v="1003.75"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="43"/>
+    <x v="43"/>
+    <n v="2900"/>
+    <n v="1761"/>
+    <n v="0.60719999999999996"/>
+    <n v="0.7"/>
+    <n v="7.29"/>
+    <n v="269"/>
+    <n v="1961.01"/>
+    <s v="11982116628"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="7408"/>
+    <n v="4488"/>
+    <n v="0.60580000000000001"/>
+    <n v="0.7"/>
+    <n v="7.22"/>
+    <n v="698"/>
+    <n v="5036.67"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="6339"/>
+    <n v="3839"/>
+    <n v="0.60560000000000003"/>
+    <n v="0.7"/>
+    <n v="7.17"/>
+    <n v="598"/>
+    <n v="4289.8100000000004"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5594"/>
+    <n v="3385"/>
+    <n v="0.60509999999999997"/>
+    <n v="0.7"/>
+    <n v="7.13"/>
+    <n v="531"/>
+    <n v="3784.6"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7910"/>
+    <n v="4780"/>
+    <n v="0.60429999999999995"/>
+    <n v="0.7"/>
+    <n v="7.13"/>
+    <n v="757"/>
+    <n v="5397.41"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="5522"/>
+    <n v="3237"/>
+    <n v="0.58620000000000005"/>
+    <n v="0.7"/>
+    <n v="7.31"/>
+    <n v="628"/>
+    <n v="4593.6000000000004"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="5675"/>
+    <n v="3323"/>
+    <n v="0.58560000000000001"/>
+    <n v="0.7"/>
+    <n v="7.18"/>
+    <n v="649"/>
+    <n v="4663.41"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="7194"/>
+    <n v="4208"/>
+    <n v="0.58489999999999998"/>
+    <n v="0.7"/>
+    <n v="7.08"/>
+    <n v="828"/>
+    <n v="5860.82"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="6388"/>
+    <n v="3704"/>
+    <n v="0.57979999999999998"/>
+    <n v="0.7"/>
+    <n v="6.89"/>
+    <n v="768"/>
+    <n v="5288.76"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="2018"/>
+    <n v="1158"/>
+    <n v="0.57379999999999998"/>
+    <n v="0.7"/>
+    <n v="7.57"/>
+    <n v="255"/>
+    <n v="1927.32"/>
+    <s v="11996130882"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="6321"/>
+    <n v="3589"/>
+    <n v="0.56779999999999997"/>
+    <n v="0.7"/>
+    <n v="7.33"/>
+    <n v="836"/>
+    <n v="6125.68"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="52"/>
+    <x v="12"/>
+    <n v="4474"/>
+    <n v="2518"/>
+    <n v="0.56279999999999997"/>
+    <n v="0.7"/>
+    <n v="7.35"/>
+    <n v="614"/>
+    <n v="4511.43"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="1165"/>
+    <n v="637"/>
+    <n v="0.54679999999999995"/>
+    <n v="0.7"/>
+    <n v="7.24"/>
+    <n v="178"/>
+    <n v="1292.3399999999999"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="4453"/>
+    <n v="2435"/>
+    <n v="0.54679999999999995"/>
+    <n v="0.7"/>
+    <n v="6.99"/>
+    <n v="682"/>
+    <n v="4767.88"/>
+    <s v="1138651227"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="3440"/>
+    <n v="1880"/>
+    <n v="0.54649999999999999"/>
+    <n v="0.7"/>
+    <n v="7.5"/>
+    <n v="528"/>
+    <n v="3960"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="9963"/>
+    <n v="5426"/>
+    <n v="0.54459999999999997"/>
+    <n v="0.7"/>
+    <n v="7.26"/>
+    <n v="1548"/>
+    <n v="11239.21"/>
+    <s v="11915623011"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="6390"/>
+    <n v="3477"/>
+    <n v="0.54410000000000003"/>
+    <n v="0.7"/>
+    <n v="7.04"/>
+    <n v="996"/>
+    <n v="7011.84"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="4916"/>
+    <n v="2652"/>
+    <n v="0.53949999999999998"/>
+    <n v="0.7"/>
+    <n v="7.16"/>
+    <n v="789"/>
+    <n v="5650.67"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="24"/>
+    <n v="3370"/>
+    <n v="1769"/>
+    <n v="0.52490000000000003"/>
+    <n v="0.7"/>
+    <n v="7.49"/>
+    <n v="590"/>
+    <n v="4419.1000000000004"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="28"/>
+    <x v="28"/>
+    <n v="6704"/>
+    <n v="3506"/>
+    <n v="0.52300000000000002"/>
+    <n v="0.7"/>
+    <n v="7.07"/>
+    <n v="1187"/>
+    <n v="8390.68"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="3909"/>
+    <n v="2029"/>
+    <n v="0.51910000000000001"/>
+    <n v="0.7"/>
+    <n v="7.4"/>
+    <n v="707"/>
+    <n v="5234.0200000000004"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="4917"/>
+    <n v="2517"/>
+    <n v="0.51190000000000002"/>
+    <n v="0.7"/>
+    <n v="7.15"/>
+    <n v="925"/>
+    <n v="6613.04"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="5178"/>
+    <n v="2649"/>
+    <n v="0.51160000000000005"/>
+    <n v="0.7"/>
+    <n v="7.16"/>
+    <n v="976"/>
+    <n v="6985.3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="27"/>
+    <x v="27"/>
+    <n v="5614"/>
+    <n v="2820"/>
+    <n v="0.50229999999999997"/>
+    <n v="0.7"/>
+    <n v="6.92"/>
+    <n v="1110"/>
+    <n v="7679.82"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="29"/>
+    <n v="5536"/>
+    <n v="2766"/>
+    <n v="0.49959999999999999"/>
+    <n v="0.7"/>
+    <n v="7.12"/>
+    <n v="1109"/>
+    <n v="7897.5"/>
+    <s v="11984523530"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="5884"/>
+    <n v="2914"/>
+    <n v="0.49519999999999997"/>
+    <n v="0.7"/>
+    <n v="7.14"/>
+    <n v="1205"/>
+    <n v="8602.27"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="26"/>
+    <x v="26"/>
+    <n v="6075"/>
+    <n v="2976"/>
+    <n v="0.4899"/>
+    <n v="0.7"/>
+    <n v="7.5"/>
+    <n v="1276"/>
+    <n v="9573.75"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="45"/>
+    <x v="44"/>
+    <n v="4208"/>
+    <n v="2057"/>
+    <n v="0.48880000000000001"/>
+    <n v="0.7"/>
+    <n v="5.85"/>
+    <n v="889"/>
+    <n v="5194.91"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="2722"/>
+    <n v="1310"/>
+    <n v="0.48130000000000001"/>
+    <n v="0.7"/>
+    <n v="7.46"/>
+    <n v="595"/>
+    <n v="4441.68"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="46"/>
+    <x v="45"/>
+    <n v="5486"/>
+    <n v="2602"/>
+    <n v="0.4743"/>
+    <n v="0.7"/>
+    <n v="5.89"/>
+    <n v="1238"/>
+    <n v="7289.02"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="25"/>
+    <n v="5683"/>
+    <n v="2680"/>
+    <n v="0.47160000000000002"/>
+    <n v="0.7"/>
+    <n v="7"/>
+    <n v="1298"/>
+    <n v="9086.7000000000007"/>
+    <s v="11981696573"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="47"/>
+    <x v="46"/>
+    <n v="3876"/>
+    <n v="1681"/>
+    <n v="0.43369999999999997"/>
+    <n v="0.7"/>
+    <n v="6.98"/>
+    <n v="1032"/>
+    <n v="7209.01"/>
+    <s v="19982861000"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="30"/>
+    <x v="30"/>
+    <n v="4101"/>
+    <n v="1773"/>
+    <n v="0.43230000000000002"/>
+    <n v="0.7"/>
+    <n v="7.07"/>
+    <n v="1098"/>
+    <n v="7760.74"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="32"/>
+    <x v="32"/>
+    <n v="6677"/>
+    <n v="2873"/>
+    <n v="0.43030000000000002"/>
+    <n v="0.7"/>
+    <n v="7.28"/>
+    <n v="1801"/>
+    <n v="13110.55"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="31"/>
+    <n v="3676"/>
+    <n v="1483"/>
+    <n v="0.40339999999999998"/>
+    <n v="0.7"/>
+    <n v="7.22"/>
+    <n v="1090"/>
+    <n v="7871.24"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="36"/>
+    <x v="36"/>
+    <n v="4595"/>
+    <n v="1782"/>
+    <n v="0.38779999999999998"/>
+    <n v="0.7"/>
+    <n v="8.0299999999999994"/>
+    <n v="1434"/>
+    <n v="11519.04"/>
+    <s v="11963243003"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="3"/>
+    <x v="24"/>
+    <x v="53"/>
+    <x v="51"/>
+    <n v="1721"/>
+    <n v="660"/>
+    <n v="0.38350000000000001"/>
+    <n v="0.7"/>
+    <n v="6.94"/>
+    <n v="545"/>
+    <n v="3780.22"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="35"/>
+    <x v="35"/>
+    <n v="6208"/>
+    <n v="2305"/>
+    <n v="0.37130000000000002"/>
+    <n v="0.7"/>
+    <n v="7.41"/>
+    <n v="2041"/>
+    <n v="15120.85"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="37"/>
+    <x v="37"/>
+    <n v="1510"/>
+    <n v="554"/>
+    <n v="0.3669"/>
+    <n v="0.7"/>
+    <n v="7.48"/>
+    <n v="503"/>
+    <n v="3762.44"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="33"/>
+    <x v="33"/>
+    <n v="2635"/>
+    <n v="962"/>
+    <n v="0.36509999999999998"/>
+    <n v="0.7"/>
+    <n v="7.4"/>
+    <n v="882"/>
+    <n v="6530.5"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="39"/>
+    <x v="39"/>
+    <n v="1791"/>
+    <n v="651"/>
+    <n v="0.36349999999999999"/>
+    <n v="0.7"/>
+    <n v="6.91"/>
+    <n v="603"/>
+    <n v="4164.66"/>
+    <s v="61981366828"/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="48"/>
+    <x v="47"/>
+    <n v="4617"/>
+    <n v="1671"/>
+    <n v="0.3619"/>
+    <n v="0.7"/>
+    <n v="7.95"/>
+    <n v="1561"/>
+    <n v="12407.8"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="40"/>
+    <x v="40"/>
+    <n v="493"/>
+    <n v="178"/>
+    <n v="0.36109999999999998"/>
+    <n v="0.7"/>
+    <n v="7.22"/>
+    <n v="167"/>
+    <n v="1206.46"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="34"/>
+    <x v="34"/>
+    <n v="540"/>
+    <n v="148"/>
+    <n v="0.27410000000000001"/>
+    <n v="0.7"/>
+    <n v="7.28"/>
+    <n v="230"/>
+    <n v="1674.4"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="38"/>
+    <x v="38"/>
+    <n v="7515"/>
+    <n v="1967"/>
+    <n v="0.26169999999999999"/>
+    <n v="0.7"/>
+    <n v="7.61"/>
+    <n v="3294"/>
+    <n v="25063.54"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="41"/>
+    <x v="41"/>
+    <n v="3720"/>
+    <n v="857"/>
+    <n v="0.23039999999999999"/>
+    <n v="0.7"/>
+    <n v="7.31"/>
+    <n v="1747"/>
+    <n v="12770.57"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="50"/>
+    <x v="49"/>
+    <n v="1184"/>
+    <n v="270"/>
+    <n v="0.22800000000000001"/>
+    <n v="0.7"/>
+    <n v="5.84"/>
+    <n v="559"/>
+    <n v="3265.62"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="49"/>
+    <x v="48"/>
+    <n v="1615"/>
+    <n v="283"/>
+    <n v="0.17519999999999999"/>
+    <n v="0.7"/>
+    <n v="5.83"/>
+    <n v="848"/>
+    <n v="4943.8500000000004"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-10-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="51"/>
+    <x v="50"/>
+    <n v="591"/>
+    <n v="76"/>
+    <n v="0.12859999999999999"/>
+    <n v="0.7"/>
+    <n v="7.41"/>
+    <n v="338"/>
+    <n v="2502.36"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6780"/>
+    <n v="4204"/>
+    <n v="0.62009999999999998"/>
+    <n v="0.7"/>
+    <n v="7.27"/>
+    <n v="542"/>
+    <n v="3940.34"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="42"/>
+    <x v="42"/>
+    <n v="2512"/>
+    <n v="1533"/>
+    <n v="0.61029999999999995"/>
+    <n v="0.7"/>
+    <n v="7.44"/>
+    <n v="225"/>
+    <n v="1676.98"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5888"/>
+    <n v="3565"/>
+    <n v="0.60550000000000004"/>
+    <n v="0.7"/>
+    <n v="7.3"/>
+    <n v="557"/>
+    <n v="4063.18"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7292"/>
+    <n v="4415"/>
+    <n v="0.60550000000000004"/>
+    <n v="0.7"/>
+    <n v="7.22"/>
+    <n v="689"/>
+    <n v="4977.47"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="5823"/>
+    <n v="3491"/>
+    <n v="0.59950000000000003"/>
+    <n v="0.7"/>
+    <n v="7.35"/>
+    <n v="585"/>
+    <n v="4300.49"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="52"/>
+    <x v="12"/>
+    <n v="5082"/>
+    <n v="2961"/>
+    <n v="0.58260000000000001"/>
+    <n v="0.7"/>
+    <n v="7.46"/>
+    <n v="596"/>
+    <n v="4449.1400000000003"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="7810"/>
+    <n v="4544"/>
+    <n v="0.58179999999999998"/>
+    <n v="0.7"/>
+    <n v="7.29"/>
+    <n v="923"/>
+    <n v="6728.67"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="43"/>
+    <x v="43"/>
+    <n v="2973"/>
+    <n v="1728"/>
+    <n v="0.58120000000000005"/>
+    <n v="0.7"/>
+    <n v="7.47"/>
+    <n v="353"/>
+    <n v="2637.66"/>
+    <s v="11982116628"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="5023"/>
+    <n v="2911"/>
+    <n v="0.57950000000000002"/>
+    <n v="0.7"/>
+    <n v="7.31"/>
+    <n v="605"/>
+    <n v="4423.28"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="7261"/>
+    <n v="4189"/>
+    <n v="0.57689999999999997"/>
+    <n v="0.7"/>
+    <n v="7.25"/>
+    <n v="894"/>
+    <n v="6479.33"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="7758"/>
+    <n v="4442"/>
+    <n v="0.5726"/>
+    <n v="0.7"/>
+    <n v="7.34"/>
+    <n v="989"/>
+    <n v="7256.32"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="7169"/>
+    <n v="3993"/>
+    <n v="0.55700000000000005"/>
+    <n v="0.7"/>
+    <n v="7.42"/>
+    <n v="1025"/>
+    <n v="7607.73"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="4651"/>
+    <n v="2556"/>
+    <n v="0.54959999999999998"/>
+    <n v="0.7"/>
+    <n v="7.34"/>
+    <n v="700"/>
+    <n v="5135.8"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="6849"/>
+    <n v="3733"/>
+    <n v="0.54500000000000004"/>
+    <n v="0.7"/>
+    <n v="7.05"/>
+    <n v="1061"/>
+    <n v="7482.17"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="1146"/>
+    <n v="623"/>
+    <n v="0.54359999999999997"/>
+    <n v="0.7"/>
+    <n v="7.3"/>
+    <n v="179"/>
+    <n v="1308.1600000000001"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="11376"/>
+    <n v="6145"/>
+    <n v="0.54020000000000001"/>
+    <n v="0.7"/>
+    <n v="7.37"/>
+    <n v="1818"/>
+    <n v="13400.13"/>
+    <s v="11915623011"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="5211"/>
+    <n v="2810"/>
+    <n v="0.53920000000000001"/>
+    <n v="0.7"/>
+    <n v="7.37"/>
+    <n v="838"/>
+    <n v="6173.85"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="6938"/>
+    <n v="3699"/>
+    <n v="0.53320000000000001"/>
+    <n v="0.7"/>
+    <n v="7.19"/>
+    <n v="1158"/>
+    <n v="8323.14"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="2217"/>
+    <n v="1178"/>
+    <n v="0.53129999999999999"/>
+    <n v="0.7"/>
+    <n v="7.73"/>
+    <n v="374"/>
+    <n v="2890.25"/>
+    <s v="11996130882"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="4569"/>
+    <n v="2417"/>
+    <n v="0.52900000000000003"/>
+    <n v="0.7"/>
+    <n v="7.55"/>
+    <n v="781"/>
+    <n v="5898.82"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="4883"/>
+    <n v="2537"/>
+    <n v="0.51959999999999995"/>
+    <n v="0.7"/>
+    <n v="7.11"/>
+    <n v="881"/>
+    <n v="6264.62"/>
+    <s v="1138651227"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="6200"/>
+    <n v="3198"/>
+    <n v="0.51580000000000004"/>
+    <n v="0.7"/>
+    <n v="7.27"/>
+    <n v="1142"/>
+    <n v="8302.34"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="28"/>
+    <x v="28"/>
+    <n v="6645"/>
+    <n v="3403"/>
+    <n v="0.5121"/>
+    <n v="0.7"/>
+    <n v="7.09"/>
+    <n v="1248"/>
+    <n v="8851.8700000000008"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="24"/>
+    <n v="3975"/>
+    <n v="2028"/>
+    <n v="0.51019999999999999"/>
+    <n v="0.7"/>
+    <n v="7.57"/>
+    <n v="754"/>
+    <n v="5711.57"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="4494"/>
+    <n v="2231"/>
+    <n v="0.49640000000000001"/>
+    <n v="0.7"/>
+    <n v="7.58"/>
+    <n v="915"/>
+    <n v="6934.18"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="25"/>
+    <n v="5601"/>
+    <n v="2738"/>
+    <n v="0.48880000000000001"/>
+    <n v="0.7"/>
+    <n v="7.04"/>
+    <n v="1183"/>
+    <n v="8326.2099999999991"/>
+    <s v="11981696573"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="3222"/>
+    <n v="1572"/>
+    <n v="0.4879"/>
+    <n v="0.7"/>
+    <n v="7.6"/>
+    <n v="683"/>
+    <n v="5193.84"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="30"/>
+    <x v="30"/>
+    <n v="3527"/>
+    <n v="1719"/>
+    <n v="0.4874"/>
+    <n v="0.7"/>
+    <n v="7.04"/>
+    <n v="750"/>
+    <n v="5279.3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="6507"/>
+    <n v="3165"/>
+    <n v="0.4864"/>
+    <n v="0.7"/>
+    <n v="7.33"/>
+    <n v="1390"/>
+    <n v="10187.969999999999"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="26"/>
+    <x v="26"/>
+    <n v="6325"/>
+    <n v="3074"/>
+    <n v="0.48599999999999999"/>
+    <n v="0.7"/>
+    <n v="7.65"/>
+    <n v="1353"/>
+    <n v="10354.280000000001"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="27"/>
+    <x v="27"/>
+    <n v="6032"/>
+    <n v="2903"/>
+    <n v="0.48130000000000001"/>
+    <n v="0.7"/>
+    <n v="7.04"/>
+    <n v="1319"/>
+    <n v="9288.58"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="45"/>
+    <x v="44"/>
+    <n v="4659"/>
+    <n v="2229"/>
+    <n v="0.47839999999999999"/>
+    <n v="0.7"/>
+    <n v="6.21"/>
+    <n v="1032"/>
+    <n v="6414.11"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="29"/>
+    <n v="6059"/>
+    <n v="2801"/>
+    <n v="0.46229999999999999"/>
+    <n v="0.7"/>
+    <n v="7.46"/>
+    <n v="1440"/>
+    <n v="10744.64"/>
+    <s v="11984523530"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="46"/>
+    <x v="45"/>
+    <n v="5248"/>
+    <n v="2355"/>
+    <n v="0.44869999999999999"/>
+    <n v="0.7"/>
+    <n v="6.26"/>
+    <n v="1319"/>
+    <n v="8255.7999999999993"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="31"/>
+    <n v="3797"/>
+    <n v="1687"/>
+    <n v="0.44429999999999997"/>
+    <n v="0.7"/>
+    <n v="7.37"/>
+    <n v="971"/>
+    <n v="7155.53"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="47"/>
+    <x v="46"/>
+    <n v="4392"/>
+    <n v="1907"/>
+    <n v="0.43419999999999997"/>
+    <n v="0.7"/>
+    <n v="7.01"/>
+    <n v="1167"/>
+    <n v="8179.17"/>
+    <s v="19982861000"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="32"/>
+    <x v="32"/>
+    <n v="7138"/>
+    <n v="2976"/>
+    <n v="0.41689999999999999"/>
+    <n v="0.7"/>
+    <n v="7.41"/>
+    <n v="2021"/>
+    <n v="14972.65"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="36"/>
+    <x v="36"/>
+    <n v="4890"/>
+    <n v="1891"/>
+    <n v="0.38669999999999999"/>
+    <n v="0.7"/>
+    <n v="7.93"/>
+    <n v="1532"/>
+    <n v="12148.76"/>
+    <s v="11963243003"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="37"/>
+    <x v="37"/>
+    <n v="1542"/>
+    <n v="596"/>
+    <n v="0.38650000000000001"/>
+    <n v="0.7"/>
+    <n v="7.62"/>
+    <n v="483"/>
+    <n v="3683.51"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="35"/>
+    <x v="35"/>
+    <n v="6337"/>
+    <n v="2302"/>
+    <n v="0.36330000000000001"/>
+    <n v="0.7"/>
+    <n v="7.53"/>
+    <n v="2134"/>
+    <n v="16068.27"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="48"/>
+    <x v="47"/>
+    <n v="4883"/>
+    <n v="1754"/>
+    <n v="0.35920000000000002"/>
+    <n v="0.7"/>
+    <n v="8.09"/>
+    <n v="1664"/>
+    <n v="13469.83"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="3"/>
+    <x v="24"/>
+    <x v="53"/>
+    <x v="51"/>
+    <n v="1435"/>
+    <n v="492"/>
+    <n v="0.34289999999999998"/>
+    <n v="0.7"/>
+    <n v="7.05"/>
+    <n v="512"/>
+    <n v="3613.13"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="39"/>
+    <x v="39"/>
+    <n v="1725"/>
+    <n v="575"/>
+    <n v="0.33329999999999999"/>
+    <n v="0.7"/>
+    <n v="7.78"/>
+    <n v="632"/>
+    <n v="4920.8500000000004"/>
+    <s v="61981366828"/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="40"/>
+    <x v="40"/>
+    <n v="560"/>
+    <n v="180"/>
+    <n v="0.32140000000000002"/>
+    <n v="0.7"/>
+    <n v="7.55"/>
+    <n v="212"/>
+    <n v="1600.6"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="33"/>
+    <x v="33"/>
+    <n v="3134"/>
+    <n v="935"/>
+    <n v="0.29830000000000001"/>
+    <n v="0.7"/>
+    <n v="7.4"/>
+    <n v="1259"/>
+    <n v="9315.1200000000008"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="38"/>
+    <x v="38"/>
+    <n v="7989"/>
+    <n v="2227"/>
+    <n v="0.27879999999999999"/>
+    <n v="0.7"/>
+    <n v="7.66"/>
+    <n v="3365"/>
+    <n v="25778.2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="34"/>
+    <x v="34"/>
+    <n v="670"/>
+    <n v="156"/>
+    <n v="0.23280000000000001"/>
+    <n v="0.7"/>
+    <n v="7.58"/>
+    <n v="313"/>
+    <n v="2372.54"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="41"/>
+    <x v="41"/>
+    <n v="3770"/>
+    <n v="784"/>
+    <n v="0.20799999999999999"/>
+    <n v="0.7"/>
+    <n v="7.45"/>
+    <n v="1855"/>
+    <n v="13819.75"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="50"/>
+    <x v="49"/>
+    <n v="569"/>
+    <n v="108"/>
+    <n v="0.1898"/>
+    <n v="0.7"/>
+    <n v="6.79"/>
+    <n v="290"/>
+    <n v="1971.05"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="49"/>
+    <x v="48"/>
+    <n v="1461"/>
+    <n v="257"/>
+    <n v="0.1759"/>
+    <n v="0.7"/>
+    <n v="6.01"/>
+    <n v="766"/>
+    <n v="4600.4399999999996"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-11-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="51"/>
+    <x v="50"/>
+    <n v="544"/>
+    <n v="80"/>
+    <n v="0.14710000000000001"/>
+    <n v="0.7"/>
+    <n v="7.54"/>
+    <n v="301"/>
+    <n v="2268.0300000000002"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="8"/>
+    <x v="25"/>
+    <x v="54"/>
+    <x v="52"/>
+    <n v="4382"/>
+    <n v="2835"/>
+    <n v="0.64700000000000002"/>
+    <n v="0.7"/>
+    <n v="7.39"/>
+    <n v="232"/>
+    <n v="1717.44"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="7385"/>
+    <n v="4728"/>
+    <n v="0.64019999999999999"/>
+    <n v="0.7"/>
+    <n v="7.3"/>
+    <n v="442"/>
+    <n v="3222.95"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7863"/>
+    <n v="4954"/>
+    <n v="0.63"/>
+    <n v="0.7"/>
+    <n v="7.31"/>
+    <n v="550"/>
+    <n v="4021.23"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8340"/>
+    <n v="5234"/>
+    <n v="0.62760000000000005"/>
+    <n v="0.7"/>
+    <n v="7.3"/>
+    <n v="604"/>
+    <n v="4409.2"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="8291"/>
+    <n v="5153"/>
+    <n v="0.62150000000000005"/>
+    <n v="0.7"/>
+    <n v="7.38"/>
+    <n v="651"/>
+    <n v="4802.17"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="43"/>
+    <x v="43"/>
+    <n v="3186"/>
+    <n v="1972"/>
+    <n v="0.61899999999999999"/>
+    <n v="0.7"/>
+    <n v="7.57"/>
+    <n v="258"/>
+    <n v="1954.57"/>
+    <s v="11982116628"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="6625"/>
+    <n v="4061"/>
+    <n v="0.61299999999999999"/>
+    <n v="0.7"/>
+    <n v="7.45"/>
+    <n v="576"/>
+    <n v="4294.93"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="52"/>
+    <x v="12"/>
+    <n v="6249"/>
+    <n v="3774"/>
+    <n v="0.60389999999999999"/>
+    <n v="0.7"/>
+    <n v="7.46"/>
+    <n v="600"/>
+    <n v="4478.24"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="42"/>
+    <x v="42"/>
+    <n v="3287"/>
+    <n v="1983"/>
+    <n v="0.60329999999999995"/>
+    <n v="0.7"/>
+    <n v="7.49"/>
+    <n v="318"/>
+    <n v="2381.0700000000002"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="4874"/>
+    <n v="2892"/>
+    <n v="0.59340000000000004"/>
+    <n v="0.7"/>
+    <n v="7.43"/>
+    <n v="520"/>
+    <n v="3862.11"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="8102"/>
+    <n v="4808"/>
+    <n v="0.59340000000000004"/>
+    <n v="0.7"/>
+    <n v="7.25"/>
+    <n v="863"/>
+    <n v="6259.65"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="8487"/>
+    <n v="5011"/>
+    <n v="0.59040000000000004"/>
+    <n v="0.7"/>
+    <n v="7.29"/>
+    <n v="930"/>
+    <n v="6778.97"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="8057"/>
+    <n v="4747"/>
+    <n v="0.58919999999999995"/>
+    <n v="0.7"/>
+    <n v="7.33"/>
+    <n v="893"/>
+    <n v="6544.96"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="13464"/>
+    <n v="7634"/>
+    <n v="0.56699999999999995"/>
+    <n v="0.7"/>
+    <n v="7.38"/>
+    <n v="1791"/>
+    <n v="13216.1"/>
+    <s v="11915623011"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="8148"/>
+    <n v="4612"/>
+    <n v="0.56599999999999995"/>
+    <n v="0.7"/>
+    <n v="7.4"/>
+    <n v="1092"/>
+    <n v="8077.84"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="2949"/>
+    <n v="1649"/>
+    <n v="0.55920000000000003"/>
+    <n v="0.7"/>
+    <n v="7.54"/>
+    <n v="415"/>
+    <n v="3131.36"/>
+    <s v="11996130882"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="8124"/>
+    <n v="4535"/>
+    <n v="0.55820000000000003"/>
+    <n v="0.7"/>
+    <n v="7.22"/>
+    <n v="1152"/>
+    <n v="8316"/>
+    <s v="13981706282"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="5100"/>
+    <n v="2834"/>
+    <n v="0.55569999999999997"/>
+    <n v="0.7"/>
+    <n v="7.48"/>
+    <n v="736"/>
+    <n v="5505.28"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="1440"/>
+    <n v="788"/>
+    <n v="0.54720000000000002"/>
+    <n v="0.7"/>
+    <n v="7.28"/>
+    <n v="220"/>
+    <n v="1601.6"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="5906"/>
+    <n v="3211"/>
+    <n v="0.54369999999999996"/>
+    <n v="0.7"/>
+    <n v="7.47"/>
+    <n v="923"/>
+    <n v="6896.3"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="7299"/>
+    <n v="3904"/>
+    <n v="0.53490000000000004"/>
+    <n v="0.7"/>
+    <n v="7.35"/>
+    <n v="1205"/>
+    <n v="8858.9599999999991"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="5198"/>
+    <n v="2777"/>
+    <n v="0.53420000000000001"/>
+    <n v="0.7"/>
+    <n v="7.15"/>
+    <n v="862"/>
+    <n v="6160.44"/>
+    <s v="1138651227"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="6855"/>
+    <n v="3659"/>
+    <n v="0.53380000000000005"/>
+    <n v="0.7"/>
+    <n v="7.18"/>
+    <n v="1139"/>
+    <n v="8181.61"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="24"/>
+    <n v="4611"/>
+    <n v="2441"/>
+    <n v="0.52939999999999998"/>
+    <n v="0.7"/>
+    <n v="7.74"/>
+    <n v="787"/>
+    <n v="6089.06"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="4405"/>
+    <n v="2314"/>
+    <n v="0.52529999999999999"/>
+    <n v="0.7"/>
+    <n v="7.68"/>
+    <n v="770"/>
+    <n v="5909.76"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="28"/>
+    <x v="28"/>
+    <n v="6825"/>
+    <n v="3570"/>
+    <n v="0.52310000000000001"/>
+    <n v="0.7"/>
+    <n v="7.1"/>
+    <n v="1208"/>
+    <n v="8573.25"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="26"/>
+    <x v="26"/>
+    <n v="7159"/>
+    <n v="3565"/>
+    <n v="0.498"/>
+    <n v="0.7"/>
+    <n v="7.69"/>
+    <n v="1446"/>
+    <n v="11122.05"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="4038"/>
+    <n v="2007"/>
+    <n v="0.497"/>
+    <n v="0.7"/>
+    <n v="7.6"/>
+    <n v="820"/>
+    <n v="6228.96"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="45"/>
+    <x v="44"/>
+    <n v="5433"/>
+    <n v="2693"/>
+    <n v="0.49569999999999997"/>
+    <n v="0.7"/>
+    <n v="6.36"/>
+    <n v="1110"/>
+    <n v="7059.7"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="27"/>
+    <x v="27"/>
+    <n v="5981"/>
+    <n v="2914"/>
+    <n v="0.48720000000000002"/>
+    <n v="0.7"/>
+    <n v="7.05"/>
+    <n v="1273"/>
+    <n v="8972.5400000000009"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="9"/>
+    <x v="26"/>
+    <x v="55"/>
+    <x v="53"/>
+    <n v="596"/>
+    <n v="290"/>
+    <n v="0.48659999999999998"/>
+    <n v="0.7"/>
+    <n v="7.53"/>
+    <n v="127"/>
+    <n v="957.82"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="46"/>
+    <x v="45"/>
+    <n v="6116"/>
+    <n v="2959"/>
+    <n v="0.48380000000000001"/>
+    <n v="0.7"/>
+    <n v="6.31"/>
+    <n v="1322"/>
+    <n v="8347.69"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="30"/>
+    <x v="30"/>
+    <n v="3449"/>
+    <n v="1650"/>
+    <n v="0.47839999999999999"/>
+    <n v="0.7"/>
+    <n v="7.27"/>
+    <n v="764"/>
+    <n v="5556.46"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="4025"/>
+    <n v="1895"/>
+    <n v="0.4708"/>
+    <n v="0.7"/>
+    <n v="7.09"/>
+    <n v="922"/>
+    <n v="6540.53"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="25"/>
+    <n v="5601"/>
+    <n v="2564"/>
+    <n v="0.45779999999999998"/>
+    <n v="0.7"/>
+    <n v="7.05"/>
+    <n v="1357"/>
+    <n v="9564.74"/>
+    <s v="11981696573"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="47"/>
+    <x v="46"/>
+    <n v="5233"/>
+    <n v="2326"/>
+    <n v="0.44450000000000001"/>
+    <n v="0.7"/>
+    <n v="6.98"/>
+    <n v="1337"/>
+    <n v="9327.64"/>
+    <s v="19982861000"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="29"/>
+    <n v="5287"/>
+    <n v="2332"/>
+    <n v="0.44109999999999999"/>
+    <n v="0.7"/>
+    <n v="7.27"/>
+    <n v="1369"/>
+    <n v="9951.9"/>
+    <s v="11984523530"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="32"/>
+    <x v="32"/>
+    <n v="7646"/>
+    <n v="3343"/>
+    <n v="0.43719999999999998"/>
+    <n v="0.7"/>
+    <n v="7.42"/>
+    <n v="2009"/>
+    <n v="14908.26"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="31"/>
+    <n v="4364"/>
+    <n v="1811"/>
+    <n v="0.41499999999999998"/>
+    <n v="0.7"/>
+    <n v="7.6"/>
+    <n v="1244"/>
+    <n v="9452.8799999999992"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="48"/>
+    <x v="47"/>
+    <n v="5271"/>
+    <n v="2132"/>
+    <n v="0.40450000000000003"/>
+    <n v="0.7"/>
+    <n v="8.24"/>
+    <n v="1558"/>
+    <n v="12827.83"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="35"/>
+    <x v="35"/>
+    <n v="6754"/>
+    <n v="2704"/>
+    <n v="0.40039999999999998"/>
+    <n v="0.7"/>
+    <n v="7.54"/>
+    <n v="2024"/>
+    <n v="15259.45"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="36"/>
+    <x v="36"/>
+    <n v="5439"/>
+    <n v="2176"/>
+    <n v="0.40010000000000001"/>
+    <n v="0.7"/>
+    <n v="7.73"/>
+    <n v="1631"/>
+    <n v="12609.95"/>
+    <s v="11963243003"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="3"/>
+    <x v="24"/>
+    <x v="53"/>
+    <x v="51"/>
+    <n v="1448"/>
+    <n v="546"/>
+    <n v="0.37709999999999999"/>
+    <n v="0.7"/>
+    <n v="7.18"/>
+    <n v="468"/>
+    <n v="3357.37"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="37"/>
+    <x v="37"/>
+    <n v="1717"/>
+    <n v="642"/>
+    <n v="0.37390000000000001"/>
+    <n v="0.7"/>
+    <n v="7.64"/>
+    <n v="560"/>
+    <n v="4277.6400000000003"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="33"/>
+    <x v="33"/>
+    <n v="3005"/>
+    <n v="1046"/>
+    <n v="0.34810000000000002"/>
+    <n v="0.7"/>
+    <n v="7.54"/>
+    <n v="1058"/>
+    <n v="7973.55"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="39"/>
+    <x v="39"/>
+    <n v="2084"/>
+    <n v="685"/>
+    <n v="0.32869999999999999"/>
+    <n v="0.7"/>
+    <n v="10.119999999999999"/>
+    <n v="774"/>
+    <n v="7830.86"/>
+    <s v="61981366828"/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="40"/>
+    <x v="40"/>
+    <n v="575"/>
+    <n v="174"/>
+    <n v="0.30259999999999998"/>
+    <n v="0.7"/>
+    <n v="7.61"/>
+    <n v="228"/>
+    <n v="1738.89"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="38"/>
+    <x v="38"/>
+    <n v="8276"/>
+    <n v="2471"/>
+    <n v="0.29859999999999998"/>
+    <n v="0.7"/>
+    <n v="7.71"/>
+    <n v="3322"/>
+    <n v="25614.16"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="34"/>
+    <x v="34"/>
+    <n v="644"/>
+    <n v="164"/>
+    <n v="0.25469999999999998"/>
+    <n v="0.7"/>
+    <n v="7.7"/>
+    <n v="287"/>
+    <n v="2208.36"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="41"/>
+    <x v="41"/>
+    <n v="3980"/>
+    <n v="904"/>
+    <n v="0.2271"/>
+    <n v="0.7"/>
+    <n v="7.47"/>
+    <n v="1882"/>
+    <n v="14058.54"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-12-01T00:00:00"/>
+    <x v="6"/>
+    <x v="17"/>
+    <x v="51"/>
+    <x v="50"/>
+    <n v="442"/>
+    <n v="81"/>
+    <n v="0.18329999999999999"/>
+    <n v="0.7"/>
+    <n v="7.38"/>
+    <n v="228"/>
+    <n v="1685.59"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91FA4F6A-A7A6-407F-9E90-DAA1B53E02B6}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:D60" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
+  <pivotFields count="13">
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="27">
+        <item x="16"/>
+        <item x="8"/>
+        <item x="25"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="24"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="26"/>
+        <item x="23"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="20"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="56">
+        <item x="46"/>
+        <item x="31"/>
+        <item x="53"/>
+        <item x="22"/>
+        <item x="41"/>
+        <item x="9"/>
+        <item x="20"/>
+        <item x="38"/>
+        <item x="48"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="29"/>
+        <item x="47"/>
+        <item x="27"/>
+        <item x="5"/>
+        <item x="32"/>
+        <item x="19"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="52"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="49"/>
+        <item x="45"/>
+        <item x="50"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="37"/>
+        <item x="17"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="24"/>
+        <item x="34"/>
+        <item x="39"/>
+        <item x="33"/>
+        <item x="16"/>
+        <item x="40"/>
+        <item x="23"/>
+        <item x="10"/>
+        <item x="36"/>
+        <item x="44"/>
+        <item x="51"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="14"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="54">
+        <item x="41"/>
+        <item x="0"/>
+        <item x="22"/>
+        <item x="14"/>
+        <item x="51"/>
+        <item x="29"/>
+        <item x="48"/>
+        <item x="21"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="49"/>
+        <item x="36"/>
+        <item x="47"/>
+        <item x="44"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="15"/>
+        <item x="25"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="6"/>
+        <item x="37"/>
+        <item x="2"/>
+        <item x="52"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="42"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="4"/>
+        <item x="24"/>
+        <item x="33"/>
+        <item x="23"/>
+        <item x="53"/>
+        <item x="39"/>
+        <item x="50"/>
+        <item x="16"/>
+        <item x="40"/>
+        <item x="1"/>
+        <item x="34"/>
+        <item x="43"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="20"/>
+        <item x="18"/>
+        <item x="12"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="10" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="10" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="44" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="44" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="3"/>
+    <field x="4"/>
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="57">
+    <i>
+      <x/>
+      <x v="17"/>
+      <x v="25"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="8"/>
+      <x v="13"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="4"/>
+      <x v="10"/>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="2"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="10"/>
+      <x v="19"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="51"/>
+      <x v="1"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="19"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="14"/>
+      <x v="18"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="45"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="29"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="32"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="30"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="5"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="16"/>
+      <x v="14"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x v="11"/>
+      <x v="15"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x v="50"/>
+      <x v="26"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x v="9"/>
+      <x v="13"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="18"/>
+      <x v="22"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="19"/>
+      <x v="24"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="20"/>
+      <x v="33"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="21"/>
+      <x v="53"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="22"/>
+      <x v="28"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="23"/>
+      <x v="53"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="24"/>
+      <x v="6"/>
+      <x v="4"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="25"/>
+      <x v="15"/>
+      <x v="21"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="26"/>
+      <x v="12"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="27"/>
+      <x v="18"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="28"/>
+      <x v="20"/>
+      <x v="13"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="29"/>
+      <x v="23"/>
+      <x v="1"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="30"/>
+      <x v="21"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="31"/>
+      <x v="1"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="32"/>
+      <x v="26"/>
+      <x v="16"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="33"/>
+      <x v="36"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="34"/>
+      <x v="25"/>
+      <x/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="35"/>
+      <x v="49"/>
+      <x v="16"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="36"/>
+      <x v="7"/>
+      <x v="23"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="37"/>
+      <x v="52"/>
+      <x v="9"/>
+      <x/>
+    </i>
+    <i>
+      <x v="38"/>
+      <x v="34"/>
+      <x v="11"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="39"/>
+      <x v="35"/>
+      <x v="12"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="40"/>
+      <x v="37"/>
+      <x v="16"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="41"/>
+      <x v="46"/>
+      <x v="3"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="42"/>
+      <x v="41"/>
+      <x v="4"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="43"/>
+      <x v="38"/>
+      <x v="6"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="44"/>
+      <x v="43"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="45"/>
+      <x v="44"/>
+      <x v="22"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="46"/>
+      <x v="39"/>
+      <x v="16"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="47"/>
+      <x v="48"/>
+      <x v="8"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="48"/>
+      <x v="13"/>
+      <x v="20"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="49"/>
+      <x v="53"/>
+      <x v="24"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="50"/>
+      <x v="42"/>
+      <x v="4"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="51"/>
+      <x v="31"/>
+      <x v="7"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="52"/>
+      <x v="47"/>
+      <x v="1"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="53"/>
+      <x v="40"/>
+      <x v="17"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="54"/>
+      <x v="27"/>
+      <x v="2"/>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="55"/>
+      <x v="3"/>
+      <x v="5"/>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,7 +6056,831 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3898068E-8D99-404A-95DF-5F1075626E08}">
+  <dimension ref="A3:D60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
